--- a/lab8/lab8.xlsx
+++ b/lab8/lab8.xlsx
@@ -61,10 +61,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -81,6 +81,1341 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$1:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1314829408"/>
+        <c:axId val="-1033692640"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1314829408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1033692640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1033692640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1314829408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,35 +1705,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -423,67 +1762,271 @@
       <c r="I2">
         <v>8</v>
       </c>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>633</v>
+        <v>693</v>
       </c>
       <c r="C3">
-        <v>444</v>
+        <v>726</v>
+      </c>
+      <c r="D3">
+        <v>528</v>
+      </c>
+      <c r="E3">
+        <v>749</v>
+      </c>
+      <c r="F3">
+        <v>536</v>
+      </c>
+      <c r="G3">
+        <v>706</v>
+      </c>
+      <c r="H3">
+        <v>586</v>
+      </c>
+      <c r="I3">
+        <v>715</v>
+      </c>
+      <c r="J3">
+        <v>739</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>717</v>
+      </c>
+      <c r="C4">
+        <v>423</v>
+      </c>
+      <c r="D4">
+        <v>334</v>
+      </c>
+      <c r="E4">
+        <v>426</v>
+      </c>
+      <c r="F4">
+        <v>409</v>
+      </c>
+      <c r="G4">
+        <v>478</v>
+      </c>
+      <c r="H4">
+        <v>476</v>
+      </c>
+      <c r="I4">
+        <v>448</v>
+      </c>
+      <c r="J4">
+        <v>403</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>677</v>
+      </c>
+      <c r="C5">
+        <v>523</v>
+      </c>
+      <c r="D5">
+        <v>281</v>
+      </c>
+      <c r="E5">
+        <v>327</v>
+      </c>
+      <c r="F5">
+        <v>346</v>
+      </c>
+      <c r="G5">
+        <v>330</v>
+      </c>
+      <c r="H5">
+        <v>343</v>
+      </c>
+      <c r="I5">
+        <v>249</v>
+      </c>
+      <c r="J5">
+        <v>323</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>759</v>
+      </c>
+      <c r="C6">
+        <v>434</v>
+      </c>
+      <c r="D6">
+        <v>406</v>
+      </c>
+      <c r="E6">
+        <v>285</v>
+      </c>
+      <c r="F6">
+        <v>319</v>
+      </c>
+      <c r="G6">
+        <v>297</v>
+      </c>
+      <c r="H6">
+        <v>232</v>
+      </c>
+      <c r="I6">
+        <v>291</v>
+      </c>
+      <c r="J6">
+        <v>266</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>761</v>
+      </c>
+      <c r="C7">
+        <v>494</v>
+      </c>
+      <c r="D7">
+        <v>364</v>
+      </c>
+      <c r="E7">
+        <v>386</v>
+      </c>
+      <c r="F7">
+        <v>264</v>
+      </c>
+      <c r="G7">
+        <v>276</v>
+      </c>
+      <c r="H7">
+        <v>275</v>
+      </c>
+      <c r="I7">
+        <v>247</v>
+      </c>
+      <c r="J7">
+        <v>171</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>703</v>
+      </c>
+      <c r="C8">
+        <v>452</v>
+      </c>
+      <c r="D8">
+        <v>343</v>
+      </c>
+      <c r="E8">
+        <v>329</v>
+      </c>
+      <c r="F8">
+        <v>340</v>
+      </c>
+      <c r="G8">
+        <v>259</v>
+      </c>
+      <c r="H8">
+        <v>257</v>
+      </c>
+      <c r="I8">
+        <v>261</v>
+      </c>
+      <c r="J8">
+        <v>265</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>808</v>
+      </c>
+      <c r="C9">
+        <v>470</v>
+      </c>
+      <c r="D9">
+        <v>381</v>
+      </c>
+      <c r="E9">
+        <v>312</v>
+      </c>
+      <c r="F9">
+        <v>292</v>
+      </c>
+      <c r="G9">
+        <v>271</v>
+      </c>
+      <c r="H9">
+        <v>260</v>
+      </c>
+      <c r="I9">
+        <v>258</v>
+      </c>
+      <c r="J9">
+        <v>216</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="B10">
+        <v>733</v>
+      </c>
+      <c r="C10">
+        <v>441</v>
+      </c>
+      <c r="D10">
+        <v>366</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>280</v>
+      </c>
+      <c r="G10">
+        <v>291</v>
+      </c>
+      <c r="H10">
+        <v>305</v>
+      </c>
+      <c r="I10">
+        <v>188</v>
+      </c>
+      <c r="J10">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>